--- a/Extracted variables Excel/paymentsPC_noTOR.xlsx
+++ b/Extracted variables Excel/paymentsPC_noTOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Downloads\OZP\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Downloads\OZP\results\Extracted variables Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A427AFB3-5FBE-40FC-8CE4-7A75817CBEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B988A849-B337-4129-9880-7E745F39A0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -478,25 +478,25 @@
     <t xml:space="preserve">            "payment_index": "63",</t>
   </si>
   <si>
-    <t>Payment index</t>
-  </si>
-  <si>
-    <t>Attempt time</t>
-  </si>
-  <si>
-    <t>Resolve time</t>
-  </si>
-  <si>
-    <t>Total fees in milisatoshi</t>
-  </si>
-  <si>
-    <t>Transaction value</t>
+    <t>PaymentIndex</t>
+  </si>
+  <si>
+    <t>AttemptTime</t>
+  </si>
+  <si>
+    <t>ResolveTime</t>
+  </si>
+  <si>
+    <t>TotalFeesMilisatoshis</t>
+  </si>
+  <si>
+    <t>TransactionValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1330,11 +1330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
